--- a/data/processed/Portfolio_3.xlsx
+++ b/data/processed/Portfolio_3.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TNOTEret_1q</t>
+          <t>TNXret_q</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TNOTEret_s</t>
+          <t>TNXret_s</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TNOTEret_a</t>
+          <t>TNXret_a</t>
         </is>
       </c>
     </row>
